--- a/TestStage.xlsx
+++ b/TestStage.xlsx
@@ -72,42 +72,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -119,132 +84,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -548,7 +387,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -557,6 +396,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -596,11 +438,17 @@
       <c r="N1">
         <v>1</v>
       </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
       <c r="P1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -637,11 +485,20 @@
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -677,6 +534,9 @@
       </c>
       <c r="M3">
         <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -725,6 +585,12 @@
       <c r="M4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="P4">
         <v>1</v>
       </c>
@@ -980,6 +846,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -1009,6 +881,15 @@
       </c>
       <c r="L10">
         <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1018,6 +899,9 @@
       <c r="A11">
         <v>4</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -1047,15 +931,27 @@
       </c>
       <c r="L11">
         <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
         <v>3</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
       <c r="P11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -1091,6 +987,9 @@
       </c>
       <c r="N12">
         <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1099,19 +998,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
